--- a/exposan/biogenic_refinery/results/sysB_South Africa.xlsx
+++ b/exposan/biogenic_refinery/results/sysB_South Africa.xlsx
@@ -26341,7 +26341,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E6">
-        <v>17.05714890039898</v>
+        <v>17.05714890039897</v>
       </c>
       <c r="F6">
         <v>-3.903821663193296</v>
